--- a/01_Input/00_CO Validation/Comoros - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Comoros - Energy Projects.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27002"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_4FBE06CF6699926653FEF5DF89896572793B1098" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{63508253-1BE0-4F5E-B602-A8E7A343DC5B}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="11_4FBE06CF6699926653FEF5DF89896572793B1098" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8A7F6B-F684-4856-88BC-8C8C24585B0E}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,9 @@
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
   <si>
     <t>Project ID</t>
   </si>
@@ -87,6 +90,9 @@
   </si>
   <si>
     <t>Indirect Taxonomy</t>
+  </si>
+  <si>
+    <t>missing-COM-1</t>
   </si>
   <si>
     <t>Comoros national child project - Africa Minigrids Program (AMP)</t>
@@ -525,6 +531,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -536,18 +554,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -855,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372AC61B-E414-4DCF-90F2-24753B0E1ABE}">
   <dimension ref="A1:S9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C12" sqref="C6:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,102 +884,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="76.5">
-      <c r="A2" s="16"/>
+      <c r="A2" s="16" t="s">
+        <v>19</v>
+      </c>
       <c r="B2" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="16">
         <v>1269863</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="8">
+      <c r="F2" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="16">
         <v>0</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="16">
         <v>3042</v>
       </c>
-      <c r="I2" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="8"/>
+      <c r="I2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="16"/>
       <c r="K2" s="16"/>
       <c r="L2" s="16"/>
       <c r="M2" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" s="16"/>
       <c r="O2" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P2" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q2" s="16"/>
       <c r="R2" s="16"/>
@@ -984,38 +992,38 @@
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
-      <c r="E3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="E3" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="8">
+      <c r="F3" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="16">
         <v>0</v>
       </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="8"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3" s="16"/>
       <c r="K3" s="16"/>
       <c r="L3" s="16"/>
       <c r="M3" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N3" s="16"/>
       <c r="O3" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q3" s="16"/>
       <c r="R3" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S3" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="45.75">
@@ -1023,26 +1031,26 @@
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="16"/>
-      <c r="E4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8">
+      <c r="F4" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="16">
         <v>0</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="16">
         <v>0.44900000000000001</v>
       </c>
-      <c r="I4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="8"/>
+      <c r="I4" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="16"/>
       <c r="K4" s="16"/>
       <c r="L4" s="16"/>
       <c r="M4" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" s="16"/>
       <c r="O4" s="16"/>
@@ -1056,26 +1064,26 @@
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
-      <c r="E5" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="E5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="16">
         <v>0</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="16">
         <v>2</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="8"/>
+      <c r="I5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J5" s="16"/>
       <c r="K5" s="16"/>
       <c r="L5" s="16"/>
       <c r="M5" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N5" s="16"/>
       <c r="O5" s="16"/>
@@ -1089,48 +1097,48 @@
         <v>5484</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="16">
         <v>5905662</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="E6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="16">
         <v>0</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="16">
         <v>2</v>
       </c>
-      <c r="I6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="8"/>
+      <c r="I6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="16"/>
       <c r="K6" s="16"/>
       <c r="L6" s="16"/>
       <c r="M6" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N6" s="16"/>
       <c r="O6" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="P6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="Q6" s="16"/>
       <c r="R6" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S6" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="60.75">
@@ -1138,33 +1146,33 @@
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="10">
+      <c r="E7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="16">
         <v>0</v>
       </c>
-      <c r="H7" s="10">
+      <c r="H7" s="16">
         <v>10</v>
       </c>
-      <c r="I7" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J7" s="10"/>
+      <c r="I7" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" s="16"/>
       <c r="K7" s="16"/>
       <c r="L7" s="16"/>
       <c r="M7" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N7" s="16"/>
       <c r="O7" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="P7" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q7" s="16"/>
       <c r="R7" s="16"/>
@@ -1175,28 +1183,28 @@
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
-      <c r="E8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="10">
+      <c r="E8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="16">
         <v>0</v>
       </c>
-      <c r="H8" s="27">
+      <c r="H8" s="22">
         <v>592782</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="27">
+      <c r="I8" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" s="22">
         <v>592782</v>
       </c>
       <c r="K8" s="16"/>
       <c r="L8" s="16"/>
       <c r="M8" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N8" s="16"/>
       <c r="O8" s="16"/>
@@ -1210,32 +1218,32 @@
         <v>5740</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="16"/>
-      <c r="E9" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="10" t="s">
+      <c r="E9" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="10">
+      <c r="F9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="16">
         <v>0</v>
       </c>
-      <c r="H9" s="10">
+      <c r="H9" s="16">
         <v>35529</v>
       </c>
-      <c r="I9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="10"/>
+      <c r="I9" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="J9" s="16"/>
       <c r="K9" s="16"/>
       <c r="L9" s="16"/>
       <c r="M9" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N9" s="16"/>
       <c r="O9" s="16"/>
@@ -1336,19 +1344,19 @@
         <v>6469</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D2" s="6">
         <v>1269863</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G2" s="7">
         <v>0</v>
@@ -1357,7 +1365,7 @@
         <v>3042</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="152.25">
@@ -1366,10 +1374,10 @@
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G3" s="7">
         <v>0</v>
@@ -1378,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="45.75">
@@ -1387,19 +1395,19 @@
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G4" s="7">
         <v>0</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="106.5">
@@ -1408,10 +1416,10 @@
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
       <c r="E5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G5" s="7">
         <v>0</v>
@@ -1420,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="152.25">
@@ -1428,19 +1436,19 @@
         <v>5484</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6" s="6">
         <v>5905662</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G6" s="7">
         <v>0</v>
@@ -1449,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="45.75">
@@ -1458,19 +1466,19 @@
       <c r="C7" s="12"/>
       <c r="D7" s="12"/>
       <c r="E7" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="15">
         <v>0</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="152.25">
@@ -1479,19 +1487,19 @@
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
       <c r="E8" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="123.75" customHeight="1">
@@ -1499,26 +1507,26 @@
         <v>5740</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1551,160 +1559,160 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="20" t="s">
-        <v>57</v>
+      <c r="A2" s="24" t="s">
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="20"/>
+      <c r="A3" s="24"/>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="20"/>
+      <c r="A4" s="24"/>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="21" t="s">
-        <v>62</v>
+      <c r="A5" s="25" t="s">
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21"/>
+      <c r="A6" s="25"/>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="21"/>
+      <c r="A7" s="25"/>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21"/>
+      <c r="A8" s="25"/>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="21"/>
+      <c r="A9" s="25"/>
       <c r="B9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="22" t="s">
-        <v>72</v>
+      <c r="A10" s="26" t="s">
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="22"/>
+      <c r="A11" s="26"/>
       <c r="B11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="23" t="s">
-        <v>77</v>
+      <c r="A12" s="27" t="s">
+        <v>78</v>
       </c>
       <c r="B12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="23"/>
+      <c r="A13" s="27"/>
       <c r="B13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="23"/>
+      <c r="A14" s="27"/>
       <c r="B14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/01_Input/00_CO Validation/Comoros - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Comoros - Energy Projects.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27016"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="189" documentId="11_4FBE06CF6699926653FEF5DF89896572793B1098" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8A7F6B-F684-4856-88BC-8C8C24585B0E}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE4BC3-4EC6-C043-B004-9B110FFB0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="740" windowWidth="22240" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="101">
   <si>
     <t>Project ID</t>
   </si>
@@ -71,10 +76,10 @@
     <t>Gender (% female)</t>
   </si>
   <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Comments</t>
+    <t>VF or Non-VF</t>
+  </si>
+  <si>
+    <t>Tag</t>
   </si>
   <si>
     <t>SEH Taxonomy</t>
@@ -92,7 +97,13 @@
     <t>Indirect Taxonomy</t>
   </si>
   <si>
-    <t>missing-COM-1</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Policy or Regulatory Framework</t>
+  </si>
+  <si>
+    <t>Policy Population</t>
   </si>
   <si>
     <t>Comoros national child project - Africa Minigrids Program (AMP)</t>
@@ -113,46 +124,67 @@
     <t>VF</t>
   </si>
   <si>
+    <t>Close the gap on energy access</t>
+  </si>
+  <si>
+    <t>Solar</t>
+  </si>
+  <si>
+    <t>Note de l'évaluation des capacités des développeurs et des oppérateurs de mini-reseaux à mettre en oeuvre des modéles commerciaux innovants et integrer des leviers de reduction des couts</t>
+  </si>
+  <si>
+    <t>la capacité des bénéficiaires ciblés est évaluée par sondage à la fin du projet. Sur une échelle de 1 à 5, une note moyenne d'au moins 4 doit etre obtenue.</t>
+  </si>
+  <si>
+    <t>Business Model</t>
+  </si>
+  <si>
+    <t>Grant &amp; Investment</t>
+  </si>
+  <si>
+    <t>Regional</t>
+  </si>
+  <si>
+    <t>in Grande Comore, Moheli, Anjouan</t>
+  </si>
+  <si>
+    <t>Energy (MW added)</t>
+  </si>
+  <si>
+    <t>Capacité (Puissance) solaire photovoltaique installée</t>
+  </si>
+  <si>
+    <t>Le projet prévoit d'installer une capacité de 0,449MW associée à un parc batterie de 1,137MWh</t>
+  </si>
+  <si>
+    <t>Nombre d'instruments politiques de réduction des risques</t>
+  </si>
+  <si>
+    <t>Un proposition de cadre réglementaire approprié pour les mini-réseaux renouvelables finalisée, validée et adoptée par le gouvernement / Une application généralisée de la défiscalisation des équipements d'énergie renouvelable</t>
+  </si>
+  <si>
+    <t>Incentives and Support</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>Comoros Geothermal</t>
+  </si>
+  <si>
+    <t>Nombre de mesures pour le développement des énergies renouvelables et d'instruments de dérisquage financier pour le développement géothermique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposition d'un cadre légal et reglementaire des énergies renouvelables finalisé et validée </t>
+  </si>
+  <si>
     <t>Accelerating just energy transition</t>
   </si>
   <si>
-    <t>Policy or Regulatory Framework</t>
-  </si>
-  <si>
-    <t>Note de l'évaluation des capacités des développeurs et des oppérateurs de mini-reseaux à mettre en oeuvre des modéles commerciaux innovants et integrer des leviers de reduction des couts</t>
-  </si>
-  <si>
-    <t>la capacité des bénéficiaires ciblés est évaluée par sondage à la fin du projet. Sur une échelle de 1 à 5, une note moyenne d'au moins 4 doit etre obtenue.</t>
-  </si>
-  <si>
-    <t>Incentives and Support</t>
-  </si>
-  <si>
-    <t>Energy (MW added)</t>
-  </si>
-  <si>
-    <t>Capacité (Puissance) solaire photovoltaique installée</t>
-  </si>
-  <si>
-    <t>Le projet prévoit d'installer une capacité de 0,449MW associée à un parc batterie de 1,137MWh</t>
-  </si>
-  <si>
-    <t>Nombre d'instruments politiques de réduction des risques</t>
-  </si>
-  <si>
-    <t>Un proposition de cadre réglementaire approprié pour les mini-réseaux renouvelables finalisée, validée et adoptée par le gouvernement / Une application généralisée de la défiscalisation des équipements d'énergie renouvelable</t>
-  </si>
-  <si>
-    <t>Comoros Geothermal</t>
-  </si>
-  <si>
-    <t>Nombre de mesures pour le développement des énergies renouvelables et d'instruments de dérisquage financier pour le développement géothermique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Proposition d'un cadre légal et reglementaire des énergies renouvelables finalisé et validée </t>
-  </si>
-  <si>
-    <t>Scale up energy finance</t>
+    <t>Renewable Energy</t>
+  </si>
+  <si>
+    <t>Legal Framework</t>
   </si>
   <si>
     <t>Capacité (Puissance) en énergie géothermique instalée</t>
@@ -161,10 +193,7 @@
     <t>le projet prévoit l'instalation d'une central géothermique de  10 MW d'électricité</t>
   </si>
   <si>
-    <t>Close the gap on energy access</t>
-  </si>
-  <si>
-    <t>Renewable Energy</t>
+    <t>Geothermal</t>
   </si>
   <si>
     <t xml:space="preserve"> Nombre de ménages et d'entreprises bénéficiaires d'un accé à l'élécricité de source renouvelable et prope dans tout le pays</t>
@@ -203,49 +232,61 @@
     <t>35 529</t>
   </si>
   <si>
-    <t>Tier</t>
-  </si>
-  <si>
-    <t>Explanation</t>
-  </si>
-  <si>
-    <t>Access to Energy</t>
-  </si>
-  <si>
-    <t>Access to electricity (direct access to electricity, lighting,  heating, cooling etc.)</t>
-  </si>
-  <si>
-    <t>Access to energy through installed renewable energy capacity (solar PV, hydro, wind, etc. )</t>
+    <t>Number of people, disaggregated by sex, who gain access to clean electricity (direct access to electricity, lighting, cooling, etc.) </t>
+  </si>
+  <si>
+    <t>Number of MW installed capacity</t>
   </si>
   <si>
     <t>Clean Cooking</t>
   </si>
   <si>
-    <t>Access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.)</t>
-  </si>
-  <si>
-    <t>Productive Use of Energy</t>
-  </si>
-  <si>
-    <t>Agricultural Services</t>
-  </si>
-  <si>
-    <t>Access to agricultural energy services (irrigation with solar pumps, heating systems for processing food, etc. )</t>
+    <t>Number of people who gain access to clean cooking (direct access to clean cook stoves, clean fuels, biomass, etc.).</t>
+  </si>
+  <si>
+    <t>Clean Heating</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean heating (direct access to clean electric heaters, clean fuels, etc.).</t>
+  </si>
+  <si>
+    <t>Agriculture and Food System</t>
+  </si>
+  <si>
+    <t>Number of people who gain access to clean, affordable, and sustainable electricity for agricultural and food system activities (direct access to power machines for crop, processing, milling, grinding, de-husking, pressing, canning, sealing and packaging electricity, heating, cooling, solar water pumping for irrigation etc.) </t>
   </si>
   <si>
     <t>Health Services</t>
   </si>
   <si>
-    <t>Access to health services powered by solar PV and energy efficient systems such as hospitals</t>
-  </si>
-  <si>
-    <t>Access to solar water pumps</t>
+    <t>Number of people who gain access to health care facilities (direct access to electricity and heating systems for clinics, hospitals, health centers etc.) </t>
+  </si>
+  <si>
+    <t>Number of people who gain access to water services (powering water pumps, water distributions, waste management, etc.).  </t>
   </si>
   <si>
     <t>Education Services</t>
   </si>
   <si>
-    <t>Access to education services trough clean energy systems</t>
+    <t>Number of people who gain access to education services through clean energy systems (including students, teachers, etc.) </t>
+  </si>
+  <si>
+    <t>Transportation and E-mobility Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from transport and e-mobility interventions (e.g., electric vehicles, charging stations, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Efficiency Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Number of MJ saved from energy efficiency interventions (e.g., building efficiency, industries, etc.)  </t>
+  </si>
+  <si>
+    <t>Energy Infrastructure Services</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from energy infrastructure interventions (streetlight, transmission, and distribution lines, etc.) </t>
   </si>
   <si>
     <t>Other Energy Services</t>
@@ -254,7 +295,10 @@
     <t>Access to other service (electric vehicles, industries efficiency etc.)</t>
   </si>
   <si>
-    <t>Market Development</t>
+    <t xml:space="preserve">Financing support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Support for the development of market ecosystem </t>
   </si>
   <si>
     <t>Medium Enterprises</t>
@@ -269,28 +313,28 @@
     <t>Support for the development of small enterprises in the energy transition market</t>
   </si>
   <si>
-    <t>Capacity Building</t>
-  </si>
-  <si>
-    <t>Capacity Training</t>
-  </si>
-  <si>
-    <t>Individuals who participate in trainings for energy activities</t>
+    <t>Capacity Building Training</t>
+  </si>
+  <si>
+    <t>Number of people who benefits from training for enterprises on the energy business and energy finance. </t>
   </si>
   <si>
     <t>Training for enterprises on the energy business is assumed to result in at least 100 direct beneficiaries</t>
   </si>
   <si>
+    <t>Market Intervention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Volume of investment (US dollars) leverage removing barriers to private and public investment in clean, reliable, affordable, and sustainable energy solutions and energy efficiency for social infrastructure, productive use of electricity and other services </t>
+  </si>
+  <si>
     <t>Campaign Participant</t>
   </si>
   <si>
     <t>Individuals who participate in advocacy and campaign on energy</t>
   </si>
   <si>
-    <t>Policy and Regulator Frameworks</t>
-  </si>
-  <si>
-    <t>Policies and regulatory framework can have far-reaching impacts on the energy access situation in countries</t>
+    <t xml:space="preserve">Number of people supported by policy and regulatory framework development on clean, affordable, and sustainable energy </t>
   </si>
   <si>
     <t>Other</t>
@@ -303,7 +347,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="7" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -323,6 +374,7 @@
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -331,8 +383,23 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -342,42 +409,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFE497"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFAFFFFD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7FFFFB"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF42FFFA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00E1DA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00DAD3"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00BDB7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -394,21 +425,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -472,88 +488,117 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -859,406 +904,466 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372AC61B-E414-4DCF-90F2-24753B0E1ABE}">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C12" sqref="C6:C12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="29" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="5" customWidth="1"/>
-    <col min="9" max="10" width="32.7109375" style="5" customWidth="1"/>
-    <col min="11" max="14" width="9.140625" style="5"/>
-    <col min="15" max="15" width="12.7109375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="5"/>
-    <col min="18" max="18" width="12.85546875" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="21" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="10" width="32.6640625" style="2" customWidth="1"/>
+    <col min="11" max="14" width="9.1640625" style="2"/>
+    <col min="15" max="15" width="12.6640625" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.5" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="45.75">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="21" t="s">
+      <c r="R1" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" ht="76.5">
-      <c r="A2" s="16" t="s">
+      <c r="T1" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="U1" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="V1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="16">
+    </row>
+    <row r="2" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="13">
+        <v>6469</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="13">
         <v>1269863</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="E2" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>3042</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="21"/>
+      <c r="O2" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U2" s="27"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="1:22" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" s="13"/>
+      <c r="O3" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="T3" s="3"/>
+      <c r="U3" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="13"/>
+      <c r="O4" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="27"/>
+      <c r="V4" s="3"/>
+    </row>
+    <row r="5" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>2</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" s="13"/>
+      <c r="O5" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="S5" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="3"/>
+    </row>
+    <row r="6" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="13">
+        <v>5484</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="16">
+      <c r="D6" s="13">
+        <v>5905662</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="13">
         <v>0</v>
       </c>
-      <c r="H2" s="16">
-        <v>3042</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="H6" s="13">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="S6" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="3"/>
+      <c r="U6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="V6" s="3"/>
+    </row>
+    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>10</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U7" s="27"/>
+      <c r="V7" s="3"/>
+    </row>
+    <row r="8" spans="1:22" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16"/>
-      <c r="M2" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="16"/>
-      <c r="R2" s="16"/>
-      <c r="S2" s="16"/>
-    </row>
-    <row r="3" spans="1:19" ht="152.25">
-      <c r="A3" s="16"/>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16" t="s">
+      <c r="F8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>592782</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="J8" s="19">
+        <v>592782</v>
+      </c>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="N8" s="13"/>
+      <c r="O8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="21"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="U8" s="27"/>
+      <c r="V8" s="3"/>
+    </row>
+    <row r="9" spans="1:22" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="13">
+        <v>5740</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="13">
+        <v>20345141</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>35529</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S3" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="45.75">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0.44900000000000001</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="16"/>
-      <c r="S4" s="16"/>
-    </row>
-    <row r="5" spans="1:19" ht="106.5">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>2</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-    </row>
-    <row r="6" spans="1:19" ht="152.25">
-      <c r="A6" s="16">
-        <v>5484</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="16">
-        <v>5905662</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>2</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="S6" s="16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" ht="60.75">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>10</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="P7" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-    </row>
-    <row r="8" spans="1:19" ht="152.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="22">
-        <v>592782</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="J8" s="22">
-        <v>592782</v>
-      </c>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
-      <c r="Q8" s="16"/>
-      <c r="R8" s="16"/>
-      <c r="S8" s="16"/>
-    </row>
-    <row r="9" spans="1:19" ht="123.75" customHeight="1">
-      <c r="A9" s="16">
-        <v>5740</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>35529</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
-      <c r="Q9" s="16"/>
-      <c r="R9" s="16"/>
-      <c r="S9" s="16"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="3"/>
+      <c r="U9" s="27"/>
+      <c r="V9" s="3"/>
     </row>
   </sheetData>
-  <dataValidations count="5">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O9" xr:uid="{187CA916-7BA0-44C4-979E-A436E47FA479}">
       <formula1>"Accelerating just energy transition, Close the gap on energy access, Scale up energy finance"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9" xr:uid="{A572CD3F-9A68-43CC-873A-CD25D5FD21B1}">
-      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q9" xr:uid="{9DCF9F48-C133-4526-8DCA-0AA40A148E20}">
       <formula1>"AMP, PUDC, Solar4Health, Action Opportunities, Italy UNDP Energy Partnership"</formula1>
@@ -1266,17 +1371,29 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:R9" xr:uid="{8DACD09D-52D2-4183-BDF1-084570097A07}">
       <formula1>"NDC Support, National Strategy, Legal Framework,Incentives and Support, Government Capacity-Building, Carbon Pricing and Monitoring, Financing Model, Business Model"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{1807699D-A86E-48BE-9EBE-F268CF8B4EE8}">
-      <formula1>"Electricity Access, Energy Efficiency, Renewable EnergyEnergy Infrastructure,   Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P9" xr:uid="{A50756ED-3475-49D0-83A6-CD741B27BF26}">
+      <formula1>"Electricity Access, Energy Efficiency, Clean Cooking, Renewable Energy, Overall"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U9" xr:uid="{A0E93563-0219-445F-B6F6-9424E926D8BA}">
+      <formula1>"National, Regional, City, Community"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2" xr:uid="{8B355379-73A0-4822-A83C-591B2DAA39C4}">
+      <formula1>"Finance, Gender, Efficiency, Just, Health"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T2:T9" xr:uid="{7E481400-1A2A-45B3-BADB-126F284FFE99}">
+      <formula1>"Solar, Wind, Bioenergy, Hydro, Geothermal, Waste, Some Sources, Other, Unknown"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2:S9" xr:uid="{F607AB48-A656-46C3-805E-34BA1BF0CABA}">
+      <formula1>"Electricity Access, Energy Efficiency, Renewable Energy, Infrastructure,  Transport, Digital &amp; Data, Clean Cooking, Decarbonization, Hydrogen, Off-Grid, On-Grid, Research &amp; Innovation, Grant &amp; Investment"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8F115826-19CA-4AD6-80EB-713BD574D048}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FC8C2A23-14E8-45C9-83F7-622D82098150}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$22</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
@@ -1294,239 +1411,239 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="5"/>
-    <col min="2" max="2" width="21.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="20.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="5"/>
-    <col min="5" max="5" width="29" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="5" customWidth="1"/>
-    <col min="7" max="8" width="12.7109375" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.7109375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="9.1640625" style="2"/>
+    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.1640625" style="2"/>
+    <col min="5" max="5" width="29" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.6640625" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.1640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="76.5">
-      <c r="A2" s="6">
+    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>6469</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1269863</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="4">
+        <v>0</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3042</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1269863</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="F5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5484</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="G2" s="7">
+      <c r="D6" s="3">
+        <v>5905662</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="4">
         <v>0</v>
       </c>
-      <c r="H2" s="7">
-        <v>3042</v>
-      </c>
-      <c r="I2" s="8" t="s">
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" s="12">
+        <v>0</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="12" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="152.25">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F8" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="12">
         <v>0</v>
       </c>
-      <c r="H3" s="7">
-        <v>4</v>
-      </c>
-      <c r="I3" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="45.75">
-      <c r="A4" s="6"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7">
+      <c r="H8" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>5740</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" s="6">
         <v>0</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="106.5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="7">
-        <v>0</v>
-      </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="152.25">
-      <c r="A6" s="6">
-        <v>5484</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="6">
-        <v>5905662</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="7">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <v>2</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="45.75">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="152.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" s="15">
-        <v>0</v>
-      </c>
-      <c r="H8" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="123.75" customHeight="1">
-      <c r="A9" s="6">
-        <v>5740</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>50</v>
+      <c r="H9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1536,7 +1653,7 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
-            <xm:f>'Beneficiary Categories'!$B$2:$B$16</xm:f>
+            <xm:f>'Beneficiary Categories'!$A$2:$A$16</xm:f>
           </x14:formula1>
           <xm:sqref>E2:E9</xm:sqref>
         </x14:dataValidation>
@@ -1548,180 +1665,194 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="52.7109375" customWidth="1"/>
+    <col min="1" max="2" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
+      <c r="A6" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B8" s="31" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="24"/>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="24"/>
-      <c r="B4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="25"/>
-      <c r="B6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="25"/>
-      <c r="B7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="25"/>
-      <c r="B8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="25"/>
-      <c r="B9" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="26"/>
-      <c r="B11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="B12" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="27"/>
-      <c r="B13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="27"/>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>87</v>
+      <c r="B18" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A14"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2008,13 +2139,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082CDF41-BD2A-493C-B2D9-7FED956C3E0E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082CDF41-BD2A-493C-B2D9-7FED956C3E0E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AE0572-9434-475D-BE2C-1C7AE0007C3F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AE0572-9434-475D-BE2C-1C7AE0007C3F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50263A7E-E7F3-4100-A4B0-5D26086F8A2B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50263A7E-E7F3-4100-A4B0-5D26086F8A2B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
+    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01_Input/00_CO Validation/Comoros - Energy Projects.xlsx
+++ b/01_Input/00_CO Validation/Comoros - Energy Projects.xlsx
@@ -1,16 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27324"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ben/Documents/UNDP/SEH/Energy-Moonshot-Tracker/01_Input/00_CO Validation/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FE4BC3-4EC6-C043-B004-9B110FFB0ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="253" documentId="11_4FBE06CF6699926653FEF5DF89896572793B1098" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED161AE0-28D1-4A5C-B647-05A603E590F0}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="22240" windowHeight="13820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Projects (2)" sheetId="3" r:id="rId1"/>
@@ -347,7 +342,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,7 +354,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -374,7 +368,6 @@
       <sz val="11"/>
       <color rgb="FF212121"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -388,7 +381,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -396,7 +394,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -505,7 +502,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -588,11 +585,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -906,33 +906,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{372AC61B-E414-4DCF-90F2-24753B0E1ABE}">
   <dimension ref="A1:V9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="2"/>
-    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="21" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="10" width="32.6640625" style="2" customWidth="1"/>
-    <col min="11" max="14" width="9.1640625" style="2"/>
-    <col min="15" max="15" width="12.6640625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5" style="2" customWidth="1"/>
-    <col min="18" max="18" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="18.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="30.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="33.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="10" width="32.7109375" style="2" customWidth="1"/>
+    <col min="11" max="14" width="9.140625" style="2"/>
+    <col min="15" max="15" width="12.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" style="2" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="30.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="33.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" ht="45.75">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" ht="76.5">
       <c r="A2" s="13">
         <v>6469</v>
       </c>
@@ -1048,7 +1048,7 @@
       <c r="U2" s="27"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" ht="152.25">
       <c r="A3" s="13"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -1094,7 +1094,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" ht="45.75">
       <c r="A4" s="13"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -1132,7 +1132,7 @@
       <c r="U4" s="27"/>
       <c r="V4" s="3"/>
     </row>
-    <row r="5" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" ht="106.5">
       <c r="A5" s="13"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -1178,7 +1178,7 @@
       </c>
       <c r="V5" s="3"/>
     </row>
-    <row r="6" spans="1:22" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" ht="152.25">
       <c r="A6" s="13">
         <v>5484</v>
       </c>
@@ -1232,7 +1232,7 @@
       </c>
       <c r="V6" s="3"/>
     </row>
-    <row r="7" spans="1:22" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" ht="45.75">
       <c r="A7" s="13"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -1272,7 +1272,7 @@
       <c r="U7" s="27"/>
       <c r="V7" s="3"/>
     </row>
-    <row r="8" spans="1:22" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" ht="152.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1314,7 +1314,7 @@
       <c r="U8" s="27"/>
       <c r="V8" s="3"/>
     </row>
-    <row r="9" spans="1:22" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" ht="123.75" customHeight="1">
       <c r="A9" s="13">
         <v>5740</v>
       </c>
@@ -1324,7 +1324,7 @@
       <c r="C9" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D9" s="31">
         <v>20345141</v>
       </c>
       <c r="E9" s="13" t="s">
@@ -1411,20 +1411,20 @@
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" style="2"/>
-    <col min="2" max="2" width="21.83203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="9.1640625" style="2"/>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="21.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="29" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="2" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="32.6640625" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9.1640625" style="2"/>
+    <col min="6" max="6" width="20.7109375" style="2" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="32.7109375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="76.5">
       <c r="A2" s="3">
         <v>6469</v>
       </c>
@@ -1485,7 +1485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="152.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -1506,7 +1506,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="45.75">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -1527,7 +1527,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="106.5">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1548,7 +1548,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="112" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="152.25">
       <c r="A6" s="3">
         <v>5484</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="45.75">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1598,7 +1598,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="144" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="152.25">
       <c r="A8" s="9"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1619,7 +1619,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="123.75" customHeight="1">
       <c r="A9" s="3">
         <v>5740</v>
       </c>
@@ -1671,12 +1671,12 @@
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="52.6640625" customWidth="1"/>
+    <col min="1" max="2" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="29" t="s">
         <v>4</v>
       </c>
@@ -1684,171 +1684,171 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:2" ht="45.75">
+      <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="30" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:2">
+      <c r="A3" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:2" ht="30.75">
+      <c r="A4" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:2" ht="30.75">
+      <c r="A5" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="96" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:2" ht="91.5">
+      <c r="A6" s="32" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="30" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:2" ht="45.75">
+      <c r="A7" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:2" ht="45.75">
+      <c r="A8" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:2" ht="45.75">
+      <c r="A9" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="31" t="s">
+      <c r="B9" s="30" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:2" ht="30.75">
+      <c r="A10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:2" ht="30.75">
+      <c r="A11" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="33" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:2" ht="45.75">
+      <c r="A12" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="B12" s="31" t="s">
+      <c r="B12" s="30" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:2" ht="30.75">
+      <c r="A13" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="33" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="33" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:2" ht="30.75">
+      <c r="A15" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="33" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:2" ht="30.75">
+      <c r="A16" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="33" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:2" ht="30.75">
+      <c r="A17" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="30" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:2" ht="30.75">
+      <c r="A18" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" s="33" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="64" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:2" ht="76.5">
+      <c r="A19" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="33" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:2" ht="30.75">
+      <c r="A20" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="33" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="32" x14ac:dyDescent="0.2">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:2" ht="45.75">
+      <c r="A21" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="34" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:2" ht="30.75">
+      <c r="A22" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="33" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1858,8 +1858,40 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="0d2b1cfbe0bead55dc04bff20486709a">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3ed273af6605fa6a207dd3965c2d078" ns2:_="" ns3:_="">
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
+    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
+      <UserInfo>
+        <DisplayName>anliyat mze ahmed abdallah</DisplayName>
+        <AccountId>1687</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Saand Youssouf Ahmed Abdallah</DisplayName>
+        <AccountId>371</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010081A889D055969F449BCDADF9B8A9C0F0" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dd25160c21e587dbb66203dfb8c7aa52">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="720239d0-7d3a-4257-bb40-a2a3b1409bb2" xmlns:ns3="fb9e4d32-074f-4c04-81ef-e811753dfd59" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="05ccd5be12d50c438f9536854e894bcb" ns2:_="" ns3:_="">
     <xsd:import namespace="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
     <xsd:import namespace="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
     <xsd:element name="properties">
@@ -1884,6 +1916,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -1963,6 +1996,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2106,72 +2144,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="720239d0-7d3a-4257-bb40-a2a3b1409bb2">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59" xsi:nil="true"/>
-    <SharedWithUsers xmlns="fb9e4d32-074f-4c04-81ef-e811753dfd59">
-      <UserInfo>
-        <DisplayName>anliyat mze ahmed abdallah</DisplayName>
-        <AccountId>1687</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Saand Youssouf Ahmed Abdallah</DisplayName>
-        <AccountId>371</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{082CDF41-BD2A-493C-B2D9-7FED956C3E0E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AE0572-9434-475D-BE2C-1C7AE0007C3F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22AE0572-9434-475D-BE2C-1C7AE0007C3F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50263A7E-E7F3-4100-A4B0-5D26086F8A2B}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50263A7E-E7F3-4100-A4B0-5D26086F8A2B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="720239d0-7d3a-4257-bb40-a2a3b1409bb2"/>
-    <ds:schemaRef ds:uri="fb9e4d32-074f-4c04-81ef-e811753dfd59"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BAD7B01E-63FD-4A8B-898A-413842BBCE84}"/>
 </file>